--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QAutomation\QAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BDF283-A42F-4ACC-B8CB-0A04623B13AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85CF4B62-589E-4ACD-8DBA-682686248E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Priority</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Verify google search button</t>
   </si>
   <si>
-    <t>TestCaseIdName</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -67,25 +64,19 @@
     <t>SearchList</t>
   </si>
   <si>
-    <t>CHROME</t>
+    <t>SearchSecond</t>
+  </si>
+  <si>
+    <t>googleTest</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
   <si>
     <t>Arnold</t>
   </si>
   <si>
-    <t>H:\QAutomation\QAutomation\ExtentReports\AutomationReport_Wed_May_25_13_29_20_IST_2022.html</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Testing failed</t>
-  </si>
-  <si>
-    <t>SearchSecond</t>
-  </si>
-  <si>
-    <t>H:\QAutomation\QAutomation\ExtentReports\AutomationReport_Wed_May_25_13_31_02_IST_2022.html</t>
+    <t>H:\QAutomation\QAutomation\ExtentReports\AutomationReport_Wed_May_25_15_57_08_IST_2022.html</t>
   </si>
   <si>
     <t>Passed</t>
@@ -94,20 +85,13 @@
     <t>Google Test Passed</t>
   </si>
   <si>
-    <t>SearchThrid</t>
-  </si>
-  <si>
-    <t>H:\QAutomation\QAutomation\ExtentReports\AutomationReport_Wed_May_25_13_47_01_IST_2022.html</t>
-  </si>
-  <si>
-    <t>H:\QAutomation\QAutomation\ExtentReports\AutomationReport_Wed_May_25_13_48_20_IST_2022.html</t>
+    <t>TestMethodName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,7 +115,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,21 +136,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,44 +193,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -266,26 +207,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,24 +495,24 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="54.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="15.85546875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="7.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="47.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="19.42578125"/>
-    <col min="5" max="5" customWidth="true" style="5" width="22.28515625"/>
-    <col min="6" max="6" customWidth="true" style="5" width="93.5703125"/>
-    <col min="7" max="8" customWidth="true" style="5" width="20.85546875"/>
-    <col min="9" max="16384" style="5" width="54.140625"/>
+    <col min="1" max="1" width="22.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="93.5703125" style="5" customWidth="1"/>
+    <col min="7" max="8" width="20.85546875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="54.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -598,21 +524,21 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -620,25 +546,15 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -646,25 +562,15 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>21</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -672,20 +578,20 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="22">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="23">
+      <c r="D4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s" s="24">
-        <v>24</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s" s="26">
-        <v>21</v>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +610,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
